--- a/Code/Results/Cases/Case_4_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.24958055017485</v>
+        <v>8.417929682717652</v>
       </c>
       <c r="C2">
-        <v>7.7057623679143</v>
+        <v>4.566468218067921</v>
       </c>
       <c r="D2">
-        <v>7.092758585742437</v>
+        <v>5.994567865075691</v>
       </c>
       <c r="E2">
-        <v>14.43418648369762</v>
+        <v>12.49226443449704</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.09548629917756</v>
+        <v>3.651497798296613</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.91914307667808</v>
+        <v>22.96950952679996</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.39737964829953</v>
+        <v>8.643051022463588</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55447005317169</v>
+        <v>13.73217974109775</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.90968790801275</v>
+        <v>24.76987543717602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.49431654768473</v>
+        <v>8.149967460084351</v>
       </c>
       <c r="C3">
-        <v>7.251165311036417</v>
+        <v>4.324599871906938</v>
       </c>
       <c r="D3">
-        <v>6.601431646483855</v>
+        <v>5.877505468004205</v>
       </c>
       <c r="E3">
-        <v>13.57563223234861</v>
+        <v>12.27668330199397</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.101208810745959</v>
+        <v>3.653589612829342</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.9446715435021</v>
+        <v>23.03508144970211</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.7685778844474</v>
+        <v>8.467371804838443</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.61337883206288</v>
+        <v>13.56968567178112</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.74940990270933</v>
+        <v>24.81144399586466</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.00520498933493</v>
+        <v>7.982500893112043</v>
       </c>
       <c r="C4">
-        <v>6.957924182157645</v>
+        <v>4.168002570243659</v>
       </c>
       <c r="D4">
-        <v>6.285896398370461</v>
+        <v>5.806214910329673</v>
       </c>
       <c r="E4">
-        <v>13.03379616121775</v>
+        <v>12.14671911796465</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.104824643603465</v>
+        <v>3.654941667137546</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.97319235643886</v>
+        <v>23.07983653191218</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.36350097543956</v>
+        <v>8.359338476919039</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.00542902812679</v>
+        <v>13.47242771126962</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.66588936011719</v>
+        <v>24.8424351687558</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.79951407345733</v>
+        <v>7.913630780594754</v>
       </c>
       <c r="C5">
-        <v>6.83489143849193</v>
+        <v>4.102182150742393</v>
       </c>
       <c r="D5">
-        <v>6.17227032659958</v>
+        <v>5.777355519868758</v>
       </c>
       <c r="E5">
-        <v>12.80950092811118</v>
+        <v>12.09443814507544</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.106324588562011</v>
+        <v>3.655509712370183</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.98790430122035</v>
+        <v>23.09920199934314</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.19370368655181</v>
+        <v>8.315335579210672</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.75007745365576</v>
+        <v>13.43347215954164</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.6354865325087</v>
+        <v>24.85643595483154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.7649747299929</v>
+        <v>7.902160581173033</v>
       </c>
       <c r="C6">
-        <v>6.814249113400884</v>
+        <v>4.091132530656341</v>
       </c>
       <c r="D6">
-        <v>6.153252768041507</v>
+        <v>5.772576354092129</v>
       </c>
       <c r="E6">
-        <v>12.77205277368863</v>
+        <v>12.08580023216239</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.106575273353694</v>
+        <v>3.655605068596373</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.99052974123186</v>
+        <v>23.1024856366137</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.16522539261531</v>
+        <v>8.308032108381356</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.70721630726305</v>
+        <v>13.42704586796351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.63065415637904</v>
+        <v>24.85884351345593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.00245675958397</v>
+        <v>7.981574467258847</v>
       </c>
       <c r="C7">
-        <v>6.956279203425865</v>
+        <v>4.167122972210731</v>
       </c>
       <c r="D7">
-        <v>6.284374123929959</v>
+        <v>5.805824865428176</v>
       </c>
       <c r="E7">
-        <v>13.03078507750985</v>
+        <v>12.14601118342882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.104844764246674</v>
+        <v>3.654949258796145</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.97337844170903</v>
+        <v>23.08009314002934</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.36123008310805</v>
+        <v>8.358744866604995</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.00201610493776</v>
+        <v>13.47189953915657</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.66546478196556</v>
+        <v>24.84261843927991</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.99443296042203</v>
+        <v>8.326210582763093</v>
       </c>
       <c r="C8">
-        <v>7.551953140605558</v>
+        <v>4.484766049311015</v>
       </c>
       <c r="D8">
-        <v>6.926818452744881</v>
+        <v>5.954109746328216</v>
       </c>
       <c r="E8">
-        <v>14.14130723199895</v>
+        <v>12.41747913948659</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.097438687119503</v>
+        <v>3.652205044160893</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.92519353635783</v>
+        <v>22.99118455515529</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.18453500218543</v>
+        <v>8.582548629891718</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.23620807755342</v>
+        <v>13.67565780242728</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.85126818052531</v>
+        <v>24.78307152422227</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.73863183807675</v>
+        <v>8.974240102031921</v>
       </c>
       <c r="C9">
-        <v>8.607906461126291</v>
+        <v>5.042524232286652</v>
       </c>
       <c r="D9">
-        <v>8.06116625891819</v>
+        <v>6.247614410932792</v>
       </c>
       <c r="E9">
-        <v>16.24467761314601</v>
+        <v>12.96552499852977</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.083689273034993</v>
+        <v>3.647358057346894</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.93906145506541</v>
+        <v>22.85260174687254</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.64699011723438</v>
+        <v>9.017423775184705</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.41965089186265</v>
+        <v>14.09310963333719</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.33845090373357</v>
+        <v>24.70981971236305</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.89862995285516</v>
+        <v>9.427990793556564</v>
       </c>
       <c r="C10">
-        <v>9.315768464946958</v>
+        <v>5.411652284252185</v>
       </c>
       <c r="D10">
-        <v>8.816567011584842</v>
+        <v>6.462393610231082</v>
       </c>
       <c r="E10">
-        <v>17.85534266773416</v>
+        <v>13.37324818563349</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.074004325957112</v>
+        <v>3.644119215712593</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.02428505618296</v>
+        <v>22.77273740792197</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.62794672954931</v>
+        <v>9.33103920428209</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.88321414250687</v>
+        <v>14.40789198006435</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.77721243942504</v>
+        <v>24.68269414340063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.40036863504179</v>
+        <v>9.628589293648011</v>
       </c>
       <c r="C11">
-        <v>9.623280986175416</v>
+        <v>5.570625123270541</v>
       </c>
       <c r="D11">
-        <v>9.143817340451053</v>
+        <v>6.559412444717363</v>
       </c>
       <c r="E11">
-        <v>18.559552312156</v>
+        <v>13.55890545812463</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.069675705601238</v>
+        <v>3.642714998117949</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.08131909446067</v>
+        <v>22.74120156449923</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.05397042060848</v>
+        <v>9.471756023095756</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51950012994356</v>
+        <v>14.55224407793236</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.9955286868495</v>
+        <v>24.67617603963734</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.58667282689368</v>
+        <v>9.703644882926898</v>
       </c>
       <c r="C12">
-        <v>9.73767064385437</v>
+        <v>5.629530692148534</v>
       </c>
       <c r="D12">
-        <v>9.265428277248359</v>
+        <v>6.596013024432171</v>
       </c>
       <c r="E12">
-        <v>18.82225674079102</v>
+        <v>13.6291607616525</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.068046479791498</v>
+        <v>3.642193143440825</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.10570743497928</v>
+        <v>22.72995152175915</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.21240417120177</v>
+        <v>9.524709374359263</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.75629731093292</v>
+        <v>14.60702240613246</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.08098023064079</v>
+        <v>24.67454623176456</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54671247532994</v>
+        <v>9.687521685575767</v>
       </c>
       <c r="C13">
-        <v>9.713125867141406</v>
+        <v>5.616901972638541</v>
       </c>
       <c r="D13">
-        <v>9.239339264714493</v>
+        <v>6.588137198534491</v>
       </c>
       <c r="E13">
-        <v>18.76585269826668</v>
+        <v>13.61403337465719</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.068396940588642</v>
+        <v>3.64230509504438</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.10032821322503</v>
+        <v>22.73234361053709</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.17841092507693</v>
+        <v>9.513320542257468</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.70548184392688</v>
+        <v>14.59522058682648</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.06245169862318</v>
+        <v>24.67485993327694</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.41576977280529</v>
+        <v>9.63478271031962</v>
       </c>
       <c r="C14">
-        <v>9.632732980885407</v>
+        <v>5.575497289260277</v>
       </c>
       <c r="D14">
-        <v>9.153868411515184</v>
+        <v>6.562426589442226</v>
       </c>
       <c r="E14">
-        <v>18.58124380726187</v>
+        <v>13.56468680842846</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.069541476195903</v>
+        <v>3.642671866860953</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.08326865892195</v>
+        <v>22.74026213675791</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.06706270646299</v>
+        <v>9.476119493239514</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53906420335007</v>
+        <v>14.55674870175763</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.0025026279541</v>
+        <v>24.67602514449153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.3350838410628</v>
+        <v>9.602358524608405</v>
       </c>
       <c r="C15">
-        <v>9.583222790855341</v>
+        <v>5.549967020516303</v>
       </c>
       <c r="D15">
-        <v>9.101215359000683</v>
+        <v>6.546658937519294</v>
       </c>
       <c r="E15">
-        <v>18.46765341690244</v>
+        <v>13.53445203684859</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.07024379434494</v>
+        <v>3.642897811909761</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.07318753899768</v>
+        <v>22.7452026372525</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.99848265919648</v>
+        <v>9.453287889920972</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.43659093932918</v>
+        <v>14.53319708085919</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.96614668581563</v>
+        <v>24.67684809330633</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.86532109572781</v>
+        <v>9.414757990240281</v>
       </c>
       <c r="C16">
-        <v>9.295382166741486</v>
+        <v>5.401082323218058</v>
       </c>
       <c r="D16">
-        <v>8.79485447517408</v>
+        <v>6.456035960223224</v>
       </c>
       <c r="E16">
-        <v>17.80875860048717</v>
+        <v>13.36111221118208</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.074288666065971</v>
+        <v>3.644212371668743</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.02093929160358</v>
+        <v>22.77489504237663</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59969933469953</v>
+        <v>9.321799227637726</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.84104537807402</v>
+        <v>14.39847712544386</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.76332924492806</v>
+        <v>24.68323738472812</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.57051565993471</v>
+        <v>9.2981291039513</v>
       </c>
       <c r="C17">
-        <v>9.11510480150954</v>
+        <v>5.307449051389148</v>
       </c>
       <c r="D17">
-        <v>8.602746328886271</v>
+        <v>6.400237187329886</v>
       </c>
       <c r="E17">
-        <v>17.39734057503711</v>
+        <v>13.25476602850314</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.076789016753179</v>
+        <v>3.645036485265031</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.99368115719638</v>
+        <v>22.79434019644322</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.34988829948448</v>
+        <v>9.240597502511323</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.46820449998695</v>
+        <v>14.31609045332649</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.64376564976516</v>
+        <v>24.68864912649418</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.39850612047488</v>
+        <v>9.230503622426674</v>
       </c>
       <c r="C18">
-        <v>9.01004752267235</v>
+        <v>5.252751983183892</v>
       </c>
       <c r="D18">
-        <v>8.490705756552561</v>
+        <v>6.368080956213001</v>
       </c>
       <c r="E18">
-        <v>17.15801338887793</v>
+        <v>13.19361998027015</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.078234484928941</v>
+        <v>3.645517005160366</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.97971228331556</v>
+        <v>22.80597571221091</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.20429905940057</v>
+        <v>9.193711982684293</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.2509739249931</v>
+        <v>14.26881564349588</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.57675295716237</v>
+        <v>24.69230970991635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.3398456059599</v>
+        <v>9.207515704973037</v>
       </c>
       <c r="C19">
-        <v>8.974241536099502</v>
+        <v>5.234088207429606</v>
       </c>
       <c r="D19">
-        <v>8.452504059593121</v>
+        <v>6.35718396441053</v>
       </c>
       <c r="E19">
-        <v>17.07651543876887</v>
+        <v>13.17292300381028</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.078725188871683</v>
+        <v>3.645680820875594</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.97527125979942</v>
+        <v>22.80999271281744</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.15467761747285</v>
+        <v>9.177808025927872</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.17694289414055</v>
+        <v>14.25282997340396</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.55436268029302</v>
+        <v>24.6936431730775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.60215101797262</v>
+        <v>9.310601247410908</v>
       </c>
       <c r="C20">
-        <v>9.134436892718012</v>
+        <v>5.317503647284925</v>
       </c>
       <c r="D20">
-        <v>8.623356160056867</v>
+        <v>6.406183800000112</v>
       </c>
       <c r="E20">
-        <v>17.44141426199633</v>
+        <v>13.26608509391397</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.076522099371573</v>
+        <v>3.644948083417406</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.99640474392922</v>
+        <v>22.79222351357232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.37667814059634</v>
+        <v>9.249260632547273</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.50818138300808</v>
+        <v>14.32484945276624</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.65631089904641</v>
+        <v>24.68801632124474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.45433072041814</v>
+        <v>9.650298557154255</v>
       </c>
       <c r="C21">
-        <v>9.656401955317506</v>
+        <v>5.587694016860541</v>
       </c>
       <c r="D21">
-        <v>9.179035644750256</v>
+        <v>6.569982479788046</v>
       </c>
       <c r="E21">
-        <v>18.63557438058617</v>
+        <v>13.57918300824724</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.069205038579334</v>
+        <v>3.64256386902725</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.08820240413078</v>
+        <v>22.73791747725472</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.09984670636675</v>
+        <v>9.48705578716846</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.58805696888697</v>
+        <v>14.56804609928917</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.02003498815675</v>
+        <v>24.67566012996136</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.98977367986829</v>
+        <v>9.866998051572057</v>
       </c>
       <c r="C22">
-        <v>9.985553017918678</v>
+        <v>5.756734623048533</v>
       </c>
       <c r="D22">
-        <v>9.52875250996709</v>
+        <v>6.676211076612207</v>
       </c>
       <c r="E22">
-        <v>19.39299106864754</v>
+        <v>13.7834917730795</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.064480182743261</v>
+        <v>3.641063281992074</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.1645418658743</v>
+        <v>22.70645927064641</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.55563437230286</v>
+        <v>9.640505184742825</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.26967490275683</v>
+        <v>14.72763831332609</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.27399279452782</v>
+        <v>24.67247208994657</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.70595127727155</v>
+        <v>9.751848848255028</v>
       </c>
       <c r="C23">
-        <v>9.810965266156646</v>
+        <v>5.667206744907706</v>
       </c>
       <c r="D23">
-        <v>9.343317569131891</v>
+        <v>6.619602794740833</v>
       </c>
       <c r="E23">
-        <v>18.99080373325235</v>
+        <v>13.67450160051802</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.066997094982472</v>
+        <v>3.641858916791901</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.12224779461867</v>
+        <v>22.72287924211965</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.31390599397224</v>
+        <v>9.558802626621054</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.90805908902282</v>
+        <v>14.64241816463422</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.13693595762228</v>
+        <v>24.67372608812106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.58785653079438</v>
+        <v>9.304964373737908</v>
       </c>
       <c r="C24">
-        <v>9.125701258673756</v>
+        <v>5.312960661488801</v>
       </c>
       <c r="D24">
-        <v>8.614043426918652</v>
+        <v>6.403495572512065</v>
       </c>
       <c r="E24">
-        <v>17.42149727148835</v>
+        <v>13.26096775804684</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.076642747767262</v>
+        <v>3.644988028936744</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.9951681208403</v>
+        <v>22.79317904487396</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.3645725891836</v>
+        <v>9.245344655229164</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.49011680961204</v>
+        <v>14.32088922368724</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.65063382236829</v>
+        <v>24.68830070150594</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28822195934869</v>
+        <v>8.802499637692613</v>
       </c>
       <c r="C25">
-        <v>8.334234950901854</v>
+        <v>4.898722680548816</v>
       </c>
       <c r="D25">
-        <v>7.768169058287591</v>
+        <v>6.16818766683616</v>
       </c>
       <c r="E25">
-        <v>15.65424131602176</v>
+        <v>12.81605152346134</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.087331463171473</v>
+        <v>3.648612451923038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.9227914169746</v>
+        <v>22.88624729283391</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.267765745011</v>
+        <v>8.900572907807643</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.85397298955709</v>
+        <v>13.97855299283319</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.19286790074611</v>
+        <v>24.72495879512216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.417929682717652</v>
+        <v>12.24958055017481</v>
       </c>
       <c r="C2">
-        <v>4.566468218067921</v>
+        <v>7.705762367914344</v>
       </c>
       <c r="D2">
-        <v>5.994567865075691</v>
+        <v>7.092758585742352</v>
       </c>
       <c r="E2">
-        <v>12.49226443449704</v>
+        <v>14.43418648369764</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.651497798296613</v>
+        <v>2.095486299177828</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.96950952679996</v>
+        <v>15.91914307667813</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.643051022463588</v>
+        <v>11.39737964829946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.73217974109775</v>
+        <v>14.55447005317165</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.76987543717602</v>
+        <v>17.90968790801281</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.149967460084351</v>
+        <v>11.49431654768484</v>
       </c>
       <c r="C3">
-        <v>4.324599871906938</v>
+        <v>7.251165311036504</v>
       </c>
       <c r="D3">
-        <v>5.877505468004205</v>
+        <v>6.601431646483817</v>
       </c>
       <c r="E3">
-        <v>12.27668330199397</v>
+        <v>13.57563223234863</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.653589612829342</v>
+        <v>2.101208810746091</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.03508144970211</v>
+        <v>15.94467154350195</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.467371804838443</v>
+        <v>10.76857788444751</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.56968567178112</v>
+        <v>13.61337883206292</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.81144399586466</v>
+        <v>17.74940990270917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.982500893112043</v>
+        <v>11.00520498933506</v>
       </c>
       <c r="C4">
-        <v>4.168002570243659</v>
+        <v>6.957924182157692</v>
       </c>
       <c r="D4">
-        <v>5.806214910329673</v>
+        <v>6.285896398370477</v>
       </c>
       <c r="E4">
-        <v>12.14671911796465</v>
+        <v>13.03379616121783</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.654941667137546</v>
+        <v>2.104824643603733</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.07983653191218</v>
+        <v>15.97319235643856</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.359338476919039</v>
+        <v>10.3635009754397</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.47242771126962</v>
+        <v>13.00542902812683</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.8424351687558</v>
+        <v>17.66588936011688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.913630780594754</v>
+        <v>10.79951407345735</v>
       </c>
       <c r="C5">
-        <v>4.102182150742393</v>
+        <v>6.834891438491951</v>
       </c>
       <c r="D5">
-        <v>5.777355519868758</v>
+        <v>6.172270326599586</v>
       </c>
       <c r="E5">
-        <v>12.09443814507544</v>
+        <v>12.80950092811123</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.655509712370183</v>
+        <v>2.106324588562011</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.09920199934314</v>
+        <v>15.98790430122019</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.315335579210672</v>
+        <v>10.19370368655186</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.43347215954164</v>
+        <v>12.75007745365578</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.85643595483154</v>
+        <v>17.6354865325085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.902160581173033</v>
+        <v>10.76497472999288</v>
       </c>
       <c r="C6">
-        <v>4.091132530656341</v>
+        <v>6.814249113401008</v>
       </c>
       <c r="D6">
-        <v>5.772576354092129</v>
+        <v>6.153252768041455</v>
       </c>
       <c r="E6">
-        <v>12.08580023216239</v>
+        <v>12.77205277368864</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.655605068596373</v>
+        <v>2.106575273353827</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.1024856366137</v>
+        <v>15.99052974123206</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.308032108381356</v>
+        <v>10.16522539261534</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.42704586796351</v>
+        <v>12.70721630726304</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.85884351345593</v>
+        <v>17.6306541563792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.981574467258847</v>
+        <v>11.00245675958407</v>
       </c>
       <c r="C7">
-        <v>4.167122972210731</v>
+        <v>6.956279203425749</v>
       </c>
       <c r="D7">
-        <v>5.805824865428176</v>
+        <v>6.284374123929974</v>
       </c>
       <c r="E7">
-        <v>12.14601118342882</v>
+        <v>13.03078507750986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.654949258796145</v>
+        <v>2.104844764246808</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.08009314002934</v>
+        <v>15.97337844170893</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.358744866604995</v>
+        <v>10.36123008310807</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.47189953915657</v>
+        <v>13.00201610493778</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.84261843927991</v>
+        <v>17.66546478196554</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.326210582763093</v>
+        <v>11.99443296042198</v>
       </c>
       <c r="C8">
-        <v>4.484766049311015</v>
+        <v>7.551953140605661</v>
       </c>
       <c r="D8">
-        <v>5.954109746328216</v>
+        <v>6.926818452744839</v>
       </c>
       <c r="E8">
-        <v>12.41747913948659</v>
+        <v>14.14130723199897</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.652205044160893</v>
+        <v>2.097438687119637</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.99118455515529</v>
+        <v>15.92519353635777</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.582548629891718</v>
+        <v>11.18453500218541</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.67565780242728</v>
+        <v>14.23620807755343</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.78307152422227</v>
+        <v>17.85126818052521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.974240102031921</v>
+        <v>13.73863183807682</v>
       </c>
       <c r="C9">
-        <v>5.042524232286652</v>
+        <v>8.607906461126202</v>
       </c>
       <c r="D9">
-        <v>6.247614410932792</v>
+        <v>8.061166258918243</v>
       </c>
       <c r="E9">
-        <v>12.96552499852977</v>
+        <v>16.244677613146</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.647358057346894</v>
+        <v>2.083689273034858</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.85260174687254</v>
+        <v>15.9390614550653</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.017423775184705</v>
+        <v>12.64699011723442</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.09310963333719</v>
+        <v>16.41965089186263</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.70981971236305</v>
+        <v>18.3384509037335</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.427990793556564</v>
+        <v>14.89862995285518</v>
       </c>
       <c r="C10">
-        <v>5.411652284252185</v>
+        <v>9.315768464946954</v>
       </c>
       <c r="D10">
-        <v>6.462393610231082</v>
+        <v>8.816567011584766</v>
       </c>
       <c r="E10">
-        <v>13.37324818563349</v>
+        <v>17.85534266773417</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.644119215712593</v>
+        <v>2.074004325957246</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.77273740792197</v>
+        <v>16.024285056183</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.33103920428209</v>
+        <v>13.62794672954931</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.40789198006435</v>
+        <v>17.88321414250689</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.68269414340063</v>
+        <v>18.77721243942507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.628589293648011</v>
+        <v>15.40036863504179</v>
       </c>
       <c r="C11">
-        <v>5.570625123270541</v>
+        <v>9.623280986175349</v>
       </c>
       <c r="D11">
-        <v>6.559412444717363</v>
+        <v>9.143817340451079</v>
       </c>
       <c r="E11">
-        <v>13.55890545812463</v>
+        <v>18.55955231215598</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.642714998117949</v>
+        <v>2.069675705601239</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.74120156449923</v>
+        <v>16.08131909446058</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.471756023095756</v>
+        <v>14.05397042060849</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.55224407793236</v>
+        <v>18.51950012994356</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.67617603963734</v>
+        <v>18.99552868684943</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.703644882926898</v>
+        <v>15.58667282689371</v>
       </c>
       <c r="C12">
-        <v>5.629530692148534</v>
+        <v>9.737670643854415</v>
       </c>
       <c r="D12">
-        <v>6.596013024432171</v>
+        <v>9.265428277248327</v>
       </c>
       <c r="E12">
-        <v>13.6291607616525</v>
+        <v>18.82225674079103</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.642193143440825</v>
+        <v>2.068046479791497</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.72995152175915</v>
+        <v>16.10570743497932</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.524709374359263</v>
+        <v>14.2124041712018</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.60702240613246</v>
+        <v>18.75629731093294</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.67454623176456</v>
+        <v>19.08098023064082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.687521685575767</v>
+        <v>15.54671247532995</v>
       </c>
       <c r="C13">
-        <v>5.616901972638541</v>
+        <v>9.713125867141352</v>
       </c>
       <c r="D13">
-        <v>6.588137198534491</v>
+        <v>9.239339264714479</v>
       </c>
       <c r="E13">
-        <v>13.61403337465719</v>
+        <v>18.7658526982667</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.64230509504438</v>
+        <v>2.068396940588644</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.73234361053709</v>
+        <v>16.10032821322498</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.513320542257468</v>
+        <v>14.17841092507692</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.59522058682648</v>
+        <v>18.70548184392689</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.67485993327694</v>
+        <v>19.06245169862317</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.63478271031962</v>
+        <v>15.41576977280532</v>
       </c>
       <c r="C14">
-        <v>5.575497289260277</v>
+        <v>9.632732980885459</v>
       </c>
       <c r="D14">
-        <v>6.562426589442226</v>
+        <v>9.153868411515196</v>
       </c>
       <c r="E14">
-        <v>13.56468680842846</v>
+        <v>18.58124380726195</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.642671866860953</v>
+        <v>2.06954147619617</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.74026213675791</v>
+        <v>16.0832686589221</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.476119493239514</v>
+        <v>14.067062706463</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.55674870175763</v>
+        <v>18.53906420335012</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.67602514449153</v>
+        <v>19.00250262795421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.602358524608405</v>
+        <v>15.33508384106273</v>
       </c>
       <c r="C15">
-        <v>5.549967020516303</v>
+        <v>9.583222790855331</v>
       </c>
       <c r="D15">
-        <v>6.546658937519294</v>
+        <v>9.101215359000628</v>
       </c>
       <c r="E15">
-        <v>13.53445203684859</v>
+        <v>18.46765341690249</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.642897811909761</v>
+        <v>2.070243794344671</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.7452026372525</v>
+        <v>16.07318753899773</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.453287889920972</v>
+        <v>13.99848265919645</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.53319708085919</v>
+        <v>18.43659093932923</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.67684809330633</v>
+        <v>18.96614668581569</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.414757990240281</v>
+        <v>14.8653210957279</v>
       </c>
       <c r="C16">
-        <v>5.401082323218058</v>
+        <v>9.29538216674147</v>
       </c>
       <c r="D16">
-        <v>6.456035960223224</v>
+        <v>8.794854475173974</v>
       </c>
       <c r="E16">
-        <v>13.36111221118208</v>
+        <v>17.80875860048715</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.644212371668743</v>
+        <v>2.074288666066237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.77489504237663</v>
+        <v>16.02093929160347</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.321799227637726</v>
+        <v>13.5996993346996</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.39847712544386</v>
+        <v>17.84104537807405</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.68323738472812</v>
+        <v>18.76332924492795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.2981291039513</v>
+        <v>14.57051565993468</v>
       </c>
       <c r="C17">
-        <v>5.307449051389148</v>
+        <v>9.115104801509679</v>
       </c>
       <c r="D17">
-        <v>6.400237187329886</v>
+        <v>8.602746328886292</v>
       </c>
       <c r="E17">
-        <v>13.25476602850314</v>
+        <v>17.39734057503713</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.645036485265031</v>
+        <v>2.076789016753312</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.79434019644322</v>
+        <v>15.9936811571964</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.240597502511323</v>
+        <v>13.34988829948448</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.31609045332649</v>
+        <v>17.46820449998697</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.68864912649418</v>
+        <v>18.64376564976514</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.230503622426674</v>
+        <v>14.39850612047492</v>
       </c>
       <c r="C18">
-        <v>5.252751983183892</v>
+        <v>9.010047522672252</v>
       </c>
       <c r="D18">
-        <v>6.368080956213001</v>
+        <v>8.490705756552707</v>
       </c>
       <c r="E18">
-        <v>13.19361998027015</v>
+        <v>17.15801338887799</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.645517005160366</v>
+        <v>2.078234484929075</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.80597571221091</v>
+        <v>15.9797122833155</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.193711982684293</v>
+        <v>13.20429905940061</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.26881564349588</v>
+        <v>17.25097392499316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.69230970991635</v>
+        <v>18.57675295716232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.207515704973037</v>
+        <v>14.3398456059598</v>
       </c>
       <c r="C19">
-        <v>5.234088207429606</v>
+        <v>8.974241536099495</v>
       </c>
       <c r="D19">
-        <v>6.35718396441053</v>
+        <v>8.452504059593149</v>
       </c>
       <c r="E19">
-        <v>13.17292300381028</v>
+        <v>17.07651543876888</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.645680820875594</v>
+        <v>2.078725188871685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.80999271281744</v>
+        <v>15.97527125979959</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.177808025927872</v>
+        <v>13.15467761747271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.25282997340396</v>
+        <v>17.17694289414053</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.6936431730775</v>
+        <v>18.55436268029318</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.310601247410908</v>
+        <v>14.60215101797257</v>
       </c>
       <c r="C20">
-        <v>5.317503647284925</v>
+        <v>9.134436892718211</v>
       </c>
       <c r="D20">
-        <v>6.406183800000112</v>
+        <v>8.623356160056911</v>
       </c>
       <c r="E20">
-        <v>13.26608509391397</v>
+        <v>17.44141426199633</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.644948083417406</v>
+        <v>2.076522099371839</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.79222351357232</v>
+        <v>15.99640474392922</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.249260632547273</v>
+        <v>13.37667814059636</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.32484945276624</v>
+        <v>17.5081813830081</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.68801632124474</v>
+        <v>18.65631089904637</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.650298557154255</v>
+        <v>15.45433072041817</v>
       </c>
       <c r="C21">
-        <v>5.587694016860541</v>
+        <v>9.656401955317664</v>
       </c>
       <c r="D21">
-        <v>6.569982479788046</v>
+        <v>9.179035644750208</v>
       </c>
       <c r="E21">
-        <v>13.57918300824724</v>
+        <v>18.63557438058615</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.64256386902725</v>
+        <v>2.069205038579598</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.73791747725472</v>
+        <v>16.08820240413088</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.48705578716846</v>
+        <v>14.09984670636683</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.56804609928917</v>
+        <v>18.58805696888699</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.67566012996136</v>
+        <v>19.02003498815679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.866998051572057</v>
+        <v>15.98977367986824</v>
       </c>
       <c r="C22">
-        <v>5.756734623048533</v>
+        <v>9.985553017918953</v>
       </c>
       <c r="D22">
-        <v>6.676211076612207</v>
+        <v>9.528752509967189</v>
       </c>
       <c r="E22">
-        <v>13.7834917730795</v>
+        <v>19.39299106864753</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.641063281992074</v>
+        <v>2.06448018274299</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.70645927064641</v>
+        <v>16.16454186587427</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.640505184742825</v>
+        <v>14.55563437230286</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.72763831332609</v>
+        <v>19.26967490275685</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.67247208994657</v>
+        <v>19.27399279452774</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.751848848255028</v>
+        <v>15.70595127727167</v>
       </c>
       <c r="C23">
-        <v>5.667206744907706</v>
+        <v>9.810965266156579</v>
       </c>
       <c r="D23">
-        <v>6.619602794740833</v>
+        <v>9.343317569131894</v>
       </c>
       <c r="E23">
-        <v>13.67450160051802</v>
+        <v>18.99080373325233</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.641858916791901</v>
+        <v>2.066997094982607</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.72287924211965</v>
+        <v>16.12224779461849</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.558802626621054</v>
+        <v>14.31390599397234</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.64241816463422</v>
+        <v>18.90805908902287</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.67372608812106</v>
+        <v>19.13693595762213</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.304964373737908</v>
+        <v>14.58785653079437</v>
       </c>
       <c r="C24">
-        <v>5.312960661488801</v>
+        <v>9.125701258673795</v>
       </c>
       <c r="D24">
-        <v>6.403495572512065</v>
+        <v>8.614043426918615</v>
       </c>
       <c r="E24">
-        <v>13.26096775804684</v>
+        <v>17.42149727148838</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.644988028936744</v>
+        <v>2.076642747767263</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.79317904487396</v>
+        <v>15.99516812084032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.245344655229164</v>
+        <v>13.3645725891836</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.32088922368724</v>
+        <v>17.49011680961206</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.68830070150594</v>
+        <v>18.65063382236826</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.802499637692613</v>
+        <v>13.28822195934877</v>
       </c>
       <c r="C25">
-        <v>4.898722680548816</v>
+        <v>8.334234950901937</v>
       </c>
       <c r="D25">
-        <v>6.16818766683616</v>
+        <v>7.768169058287627</v>
       </c>
       <c r="E25">
-        <v>12.81605152346134</v>
+        <v>15.65424131602178</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.648612451923038</v>
+        <v>2.087331463171342</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.88624729283391</v>
+        <v>15.92279141697456</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.900572907807643</v>
+        <v>12.26776574501107</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.97855299283319</v>
+        <v>15.85397298955714</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.72495879512216</v>
+        <v>18.19286790074606</v>
       </c>
     </row>
   </sheetData>
